--- a/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>FRFR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,63 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +749,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -759,20 +772,26 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -788,20 +807,26 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,8 +990,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -968,8 +1021,14 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -997,8 +1056,14 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1039,8 +1106,14 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1068,19 +1141,25 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1097,8 +1176,14 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1106,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1126,8 +1211,14 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,8 +1281,14 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1193,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1213,8 +1316,14 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1222,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1242,8 +1351,14 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,19 +1386,25 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1387,8 +1526,14 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1396,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1416,8 +1561,14 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,8 +1596,14 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1454,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1474,42 +1631,54 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,13 +1705,15 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
+      <c r="D41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1563,8 +1736,14 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1771,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1806,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,28 +1841,34 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -1679,8 +1876,14 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1708,8 +1911,14 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1946,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1766,8 +1981,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,8 +2156,14 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1940,8 +2191,14 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1992,54 +2253,66 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>100</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2053,8 +2326,14 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2068,10 +2347,10 @@
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -2082,8 +2361,14 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2396,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,8 +2536,14 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2242,10 +2557,10 @@
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,19 +2726,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-200</v>
       </c>
-      <c r="E72" s="3">
-        <v>-100</v>
-      </c>
       <c r="F72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G72" s="3">
         <v>-100</v>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,8 +2866,14 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2516,10 +2887,10 @@
         <v>-100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,42 +2936,54 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2602,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2622,8 +3011,14 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3236,14 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2838,8 +3271,14 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2967,8 +3426,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3581,14 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3119,14 +3610,20 @@
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,8 +3651,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3181,6 +3684,12 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>FRFR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,71 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +763,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,20 +792,26 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,20 +833,26 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +866,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +903,14 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +944,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,31 +985,37 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -980,8 +1026,14 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,8 +1044,10 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1001,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1027,8 +1081,14 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1096,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-25000</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1062,8 +1122,14 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1143,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1112,8 +1180,14 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,8 +1221,14 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1156,16 +1236,16 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1182,8 +1262,14 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1191,14 +1277,14 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1217,8 +1303,14 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1344,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,8 +1385,14 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1296,14 +1400,14 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1322,8 +1426,14 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1331,14 +1441,14 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1357,8 +1467,14 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,25 +1508,31 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1631,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1532,8 +1672,14 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1541,14 +1687,14 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1567,8 +1713,14 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,8 +1754,14 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1611,14 +1769,14 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1637,48 +1795,60 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,13 +1879,15 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1742,8 +1916,14 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1957,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1998,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +2039,14 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1873,8 +2071,8 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -1882,8 +2080,14 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,8 +2121,14 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2162,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1987,8 +2203,14 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2244,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2326,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2367,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,8 +2408,14 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2197,8 +2449,14 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2487,10 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2259,22 +2521,28 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2288,37 +2556,43 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -2332,8 +2606,14 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2353,10 +2633,10 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -2367,8 +2647,14 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2688,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,8 +2852,14 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2563,10 +2879,10 @@
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -2577,8 +2893,14 @@
       <c r="M66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,25 +3074,31 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-100</v>
       </c>
       <c r="I72" s="3">
         <v>-100</v>
@@ -2767,8 +3115,14 @@
       <c r="M72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,8 +3238,14 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2893,10 +3265,10 @@
         <v>-100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -2907,8 +3279,14 @@
       <c r="M76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,48 +3320,60 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2991,14 +3381,14 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -3017,8 +3407,14 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3428,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3465,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3670,14 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3277,8 +3711,14 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3732,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3769,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3851,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +3892,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +4073,14 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3616,14 +4108,20 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +4155,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3690,6 +4194,12 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>FRFR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,74 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,20 +804,23 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,20 +848,23 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1017,8 +1039,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,8 +1071,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1055,11 +1081,11 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>25000</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1087,8 +1113,11 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,11 +1125,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-25000</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1128,8 +1157,11 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1227,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1242,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1268,8 +1307,11 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1277,17 +1319,17 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-25000</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1309,8 +1351,11 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,8 +1439,11 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1400,17 +1451,17 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-25000</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1432,8 +1483,11 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1441,17 +1495,17 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-25000</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1473,8 +1527,11 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,28 +1571,31 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1678,8 +1747,11 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1687,17 +1759,17 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-25000</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1719,8 +1791,11 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,8 +1835,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1769,17 +1847,17 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-25000</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1801,54 +1879,60 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1922,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2077,17 +2175,20 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,8 +2536,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2527,11 +2657,14 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2544,8 +2677,8 @@
       <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2562,8 +2695,8 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2571,8 +2704,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2582,11 +2718,11 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -2595,7 +2731,7 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2612,8 +2748,11 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2639,7 +2778,7 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
@@ -2653,8 +2792,11 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,8 +3012,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2885,7 +3042,7 @@
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,8 +3250,11 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3092,16 +3265,16 @@
         <v>-25300</v>
       </c>
       <c r="F72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-200</v>
       </c>
       <c r="H72" s="3">
         <v>-200</v>
       </c>
       <c r="I72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J72" s="3">
         <v>-100</v>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,8 +3426,11 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3271,7 +3456,7 @@
         <v>-100</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,54 +3514,60 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3381,17 +3575,17 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-25000</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3413,8 +3607,11 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3717,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4114,14 +4359,17 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4200,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>FRFR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,20 +814,23 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,20 +861,23 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1042,8 +1065,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1098,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1084,11 +1111,11 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>25000</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1116,8 +1143,11 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,11 +1158,11 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-25000</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1190,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1284,13 +1324,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1310,8 +1350,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1322,17 +1365,17 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-25000</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1397,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1491,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1454,17 +1506,17 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-25000</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1486,8 +1538,11 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1498,17 +1553,17 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-25000</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1530,8 +1585,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1585,20 +1646,20 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1820,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1762,17 +1835,17 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-25000</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1794,8 +1867,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1914,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1850,17 +1929,17 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-25000</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1882,57 +1961,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2178,17 +2277,20 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2662,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2660,11 +2791,14 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2680,8 +2814,8 @@
       <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2698,8 +2832,8 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2721,11 +2858,11 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -2734,7 +2871,7 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2751,13 +2888,16 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -2781,7 +2921,7 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,13 +3170,16 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -3045,7 +3203,7 @@
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3424,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3268,16 +3442,16 @@
         <v>-25300</v>
       </c>
       <c r="G72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-200</v>
       </c>
       <c r="I72" s="3">
         <v>-200</v>
       </c>
       <c r="J72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K72" s="3">
         <v>-100</v>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,13 +3612,16 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E76" s="3">
         <v>-100</v>
@@ -3459,7 +3645,7 @@
         <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3706,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3578,17 +3773,17 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-25000</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -3610,8 +3805,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4362,14 +4608,17 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>FRFR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,86 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +790,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,20 +831,26 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,20 +884,26 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1023,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1076,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1068,11 +1114,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1151,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1114,14 +1168,14 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>25000</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1146,8 +1200,14 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1161,14 +1221,14 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-25000</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1193,8 +1253,14 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1278,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1327,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1380,14 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1327,16 +1407,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1353,8 +1433,14 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1368,20 +1454,20 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-25000</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1400,8 +1486,14 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1539,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1592,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1509,20 +1613,20 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-25000</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1541,8 +1645,14 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1556,20 +1666,20 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-25000</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1588,8 +1698,14 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1649,23 +1771,23 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1910,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1963,14 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1838,20 +1984,20 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-25000</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1870,8 +2016,14 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +2069,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1932,20 +2090,20 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-25000</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -1964,60 +2122,72 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2226,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2101,8 +2275,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2328,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2381,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2434,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2280,8 +2478,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2289,8 +2487,14 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2540,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2593,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2646,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2699,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2805,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2858,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2911,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2712,8 +2964,14 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3010,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2794,11 +3056,17 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2817,11 +3085,11 @@
       <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2835,25 +3103,31 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2861,23 +3135,23 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -2891,8 +3165,14 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2900,10 +3180,10 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -2924,10 +3204,10 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
@@ -2938,8 +3218,14 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3271,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3324,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3483,14 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3182,10 +3498,10 @@
         <v>200</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -3206,10 +3522,10 @@
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
@@ -3220,8 +3536,14 @@
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,16 +3769,22 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-25300</v>
+        <v>-25400</v>
       </c>
       <c r="E72" s="3">
-        <v>-25300</v>
+        <v>-25400</v>
       </c>
       <c r="F72" s="3">
         <v>-25300</v>
@@ -3445,19 +3793,19 @@
         <v>-25300</v>
       </c>
       <c r="H72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-100</v>
       </c>
       <c r="M72" s="3">
         <v>-100</v>
@@ -3474,8 +3822,14 @@
       <c r="Q72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3981,14 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3624,10 +3996,10 @@
         <v>-200</v>
       </c>
       <c r="E76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
@@ -3648,10 +4020,10 @@
         <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
@@ -3662,8 +4034,14 @@
       <c r="Q76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +4087,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3776,20 +4166,20 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-25000</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -3808,8 +4198,14 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4272,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4537,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4590,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4615,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4770,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4823,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5056,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4611,14 +5103,20 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5162,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +5213,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>FRFR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,89 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,20 +843,23 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,20 +899,23 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1120,8 +1142,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1174,11 +1200,11 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>25000</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1206,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1227,11 +1256,11 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-25000</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1259,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1333,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1386,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1413,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1439,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1460,17 +1502,17 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-25000</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1492,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1619,17 +1670,17 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-25000</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1651,8 +1702,11 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1672,17 +1726,17 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-25000</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1704,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1777,20 +1837,20 @@
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1969,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1990,17 +2062,17 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-25000</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2022,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2096,17 +2174,17 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-25000</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2128,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2281,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2484,17 +2582,20 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2652,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3062,11 +3192,14 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3091,8 +3224,8 @@
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>100</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -3109,8 +3242,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3118,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3130,7 +3266,7 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -3141,11 +3277,11 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>100</v>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -3154,7 +3290,7 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3171,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3186,7 +3325,7 @@
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -3210,7 +3349,7 @@
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -3224,8 +3363,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3504,7 +3661,7 @@
         <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
@@ -3528,7 +3685,7 @@
         <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3787,7 +3960,7 @@
         <v>-25400</v>
       </c>
       <c r="F72" s="3">
-        <v>-25300</v>
+        <v>-25400</v>
       </c>
       <c r="G72" s="3">
         <v>-25300</v>
@@ -3799,16 +3972,16 @@
         <v>-25300</v>
       </c>
       <c r="J72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-200</v>
       </c>
       <c r="L72" s="3">
         <v>-200</v>
       </c>
       <c r="M72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N72" s="3">
         <v>-100</v>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4002,7 +4187,7 @@
         <v>-200</v>
       </c>
       <c r="G76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H76" s="3">
         <v>-100</v>
@@ -4026,7 +4211,7 @@
         <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4172,17 +4366,17 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-25000</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -4204,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4596,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5109,14 +5354,17 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5219,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>FRFR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,20 +853,23 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,20 +912,23 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1145,8 +1168,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1205,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1203,11 +1230,11 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>25000</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1235,8 +1262,11 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1259,11 +1289,11 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-25000</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1291,8 +1321,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1403,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1455,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1481,13 +1521,16 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1505,17 +1548,17 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-25000</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1537,8 +1580,11 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,13 +1698,16 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1673,17 +1725,17 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-25000</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1705,13 +1757,16 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1729,17 +1784,17 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-25000</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1761,8 +1816,11 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,28 +1875,31 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1846,14 +1907,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,13 +2111,16 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2065,17 +2138,17 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-25000</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2097,8 +2170,11 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,13 +2229,16 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2177,17 +2256,17 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-25000</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2209,69 +2288,75 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2585,17 +2684,20 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3165,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3195,11 +3326,14 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3227,8 +3361,8 @@
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -3245,8 +3379,8 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3269,7 +3406,7 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3280,11 +3417,11 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
-        <v>100</v>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -3293,7 +3430,7 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3310,13 +3447,16 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>200</v>
+      <c r="D60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -3328,7 +3468,7 @@
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
@@ -3352,7 +3492,7 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3801,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3664,7 +3822,7 @@
         <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
@@ -3688,7 +3846,7 @@
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4119,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3963,7 +4137,7 @@
         <v>-25400</v>
       </c>
       <c r="G72" s="3">
-        <v>-25300</v>
+        <v>-25400</v>
       </c>
       <c r="H72" s="3">
         <v>-25300</v>
@@ -3975,16 +4149,16 @@
         <v>-25300</v>
       </c>
       <c r="K72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-200</v>
       </c>
       <c r="M72" s="3">
         <v>-200</v>
       </c>
       <c r="N72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O72" s="3">
         <v>-100</v>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4355,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4190,7 +4376,7 @@
         <v>-200</v>
       </c>
       <c r="H76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
@@ -4214,7 +4400,7 @@
         <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,74 +4473,80 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4369,17 +4564,17 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-25000</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4401,8 +4596,11 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5357,14 +5603,17 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>FRFR</t>
   </si>
@@ -1529,8 +1529,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1706,8 +1706,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1765,8 +1765,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2119,8 +2119,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2237,8 +2237,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -3455,8 +3455,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -4545,8 +4545,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>FRFR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,101 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +817,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,20 +870,26 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,20 +935,26 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +976,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1037,14 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1102,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1167,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1171,11 +1217,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1186,8 +1232,14 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,13 +1258,15 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>15300</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1233,14 +1287,14 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>25000</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1265,8 +1319,14 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1292,14 +1352,14 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-25000</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1324,8 +1384,14 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1413,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,8 +1474,14 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,8 +1539,14 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1498,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1524,13 +1604,19 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1551,20 +1637,20 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-25000</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1583,8 +1669,14 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1734,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,13 +1799,19 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1728,20 +1832,20 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-25000</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1760,13 +1864,19 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1787,20 +1897,20 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-25000</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1819,8 +1929,14 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1994,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1910,17 +2032,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1937,8 +2059,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2189,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2114,13 +2254,19 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2141,20 +2287,20 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-25000</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2173,8 +2319,14 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,13 +2384,19 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2259,20 +2417,20 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-25000</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2291,72 +2449,84 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2573,10 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2460,8 +2634,14 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2699,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2764,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2829,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2687,8 +2885,8 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2696,8 +2894,14 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2959,14 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +3024,14 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2873,8 +3089,14 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3154,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3284,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3349,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3414,14 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3227,8 +3479,14 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3533,10 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3329,11 +3591,17 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3364,11 +3632,11 @@
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -3382,17 +3650,23 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3409,10 +3683,10 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -3420,23 +3694,23 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3450,13 +3724,19 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>200</v>
+      <c r="D60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -3471,10 +3751,10 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -3495,10 +3775,10 @@
         <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
@@ -3509,8 +3789,14 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3854,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3919,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,13 +4114,19 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>200</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -3825,10 +4141,10 @@
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -3849,10 +4165,10 @@
         <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S66" s="3">
         <v>0</v>
@@ -3863,8 +4179,14 @@
       <c r="U66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,13 +4464,19 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-25400</v>
+        <v>-40800</v>
       </c>
       <c r="E72" s="3">
         <v>-25400</v>
@@ -4140,10 +4488,10 @@
         <v>-25400</v>
       </c>
       <c r="H72" s="3">
-        <v>-25300</v>
+        <v>-25400</v>
       </c>
       <c r="I72" s="3">
-        <v>-25300</v>
+        <v>-25400</v>
       </c>
       <c r="J72" s="3">
         <v>-25300</v>
@@ -4152,19 +4500,19 @@
         <v>-25300</v>
       </c>
       <c r="L72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-100</v>
       </c>
       <c r="Q72" s="3">
         <v>-100</v>
@@ -4181,8 +4529,14 @@
       <c r="U72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,13 +4724,19 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
         <v>-200</v>
@@ -4379,10 +4751,10 @@
         <v>-200</v>
       </c>
       <c r="I76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
@@ -4403,10 +4775,10 @@
         <v>-100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
@@ -4417,8 +4789,14 @@
       <c r="U76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,77 +4854,89 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4567,20 +4957,20 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-25000</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4599,8 +4989,14 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5018,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +5079,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5404,14 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5035,8 +5469,14 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5498,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5559,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5689,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5754,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5844,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +6039,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5606,14 +6098,20 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +6169,14 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5728,6 +6232,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FRFR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>FRFR</t>
   </si>
@@ -1615,8 +1615,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-15300</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1810,8 +1810,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-15300</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1875,8 +1875,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-15300</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2265,8 +2265,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-15300</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2395,8 +2395,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-15300</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -3735,8 +3735,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -4125,8 +4125,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -4935,8 +4935,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-15300</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
